--- a/data/trans_orig/P16A10-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P16A10-Clase-trans_orig.xlsx
@@ -554,7 +554,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha consumido medicamentos para el corazón en las dos últimas semanas en 2007 (tasa de respuesta: 99,98%)</t>
+          <t>Población según si ha consumido medicamentos para el corazón en las dos últimas semanas en 2007 (tasa de respuesta: 99,98%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -2315,7 +2315,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha consumido medicamentos para el corazón en las dos últimas semanas en 2012 (tasa de respuesta: 99,77%)</t>
+          <t>Población según si ha consumido medicamentos para el corazón en las dos últimas semanas en 2012 (tasa de respuesta: 99,77%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -4076,7 +4076,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha consumido medicamentos para el corazón en las dos últimas semanas en 2016 (tasa de respuesta: 100,0%)</t>
+          <t>Población según si ha consumido medicamentos para el corazón en las dos últimas semanas en 2016 (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -5821,7 +5821,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha consumido medicamentos para el corazón en las dos últimas semanas en 2023 (tasa de respuesta: 99,93%)</t>
+          <t>Población según si ha consumido medicamentos para el corazón en las dos últimas semanas en 2023 (tasa de respuesta: 99,93%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_orig/P16A10-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P16A10-Clase-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>22167</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>14391</v>
+        <v>13858</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>33602</v>
+        <v>32757</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.04678826760382209</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.03037437385393191</v>
+        <v>0.02924991843523181</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.07092298435462814</v>
+        <v>0.06914055016261039</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>11</v>
@@ -765,19 +765,19 @@
         <v>12427</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>6263</v>
+        <v>6896</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>21876</v>
+        <v>21519</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.04052053252097733</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.02042217648419012</v>
+        <v>0.02248685499927043</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.07133288724080922</v>
+        <v>0.07016742800690426</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>32</v>
@@ -786,19 +786,19 @@
         <v>34594</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>23568</v>
+        <v>23316</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>47588</v>
+        <v>48115</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.04432536209759021</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.03019767876206348</v>
+        <v>0.0298749894539808</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.06097498496571383</v>
+        <v>0.06164948326935933</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>451609</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>440174</v>
+        <v>441019</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>459385</v>
+        <v>459918</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.953211732396178</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.929077015645372</v>
+        <v>0.9308594498373901</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9696256261460681</v>
+        <v>0.9707500815647683</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>287</v>
@@ -836,19 +836,19 @@
         <v>294253</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>284804</v>
+        <v>285161</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>300417</v>
+        <v>299784</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9594794674790227</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.928667112759191</v>
+        <v>0.9298325719930959</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9795778235158099</v>
+        <v>0.9775131450007296</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>721</v>
@@ -857,19 +857,19 @@
         <v>745863</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>732869</v>
+        <v>732342</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>756889</v>
+        <v>757141</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9556746379024098</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9390250150342864</v>
+        <v>0.9383505167306404</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9698023212379365</v>
+        <v>0.9701250105460191</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>12784</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>6501</v>
+        <v>6347</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>21039</v>
+        <v>21686</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.03484123300758187</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01771694171432475</v>
+        <v>0.01729633730999107</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.05733735563305257</v>
+        <v>0.05910178372769984</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>5</v>
@@ -982,19 +982,19 @@
         <v>6611</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>2382</v>
+        <v>2281</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>15570</v>
+        <v>13925</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.01777924937056484</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.006405424118832107</v>
+        <v>0.006134263563985796</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.04187074785014467</v>
+        <v>0.03744551368533348</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>18</v>
@@ -1003,19 +1003,19 @@
         <v>19396</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>12168</v>
+        <v>11846</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>31290</v>
+        <v>31147</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.02625330556788221</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.01647044097623285</v>
+        <v>0.01603346662270847</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.04235280080244345</v>
+        <v>0.04215962204114818</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>354150</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>345895</v>
+        <v>345248</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>360433</v>
+        <v>360587</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9651587669924181</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9426626443669475</v>
+        <v>0.9408982162723011</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9822830582856752</v>
+        <v>0.982703662690009</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>358</v>
@@ -1053,19 +1053,19 @@
         <v>365254</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>356295</v>
+        <v>357940</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>369483</v>
+        <v>369584</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9822207506294351</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9581292521498549</v>
+        <v>0.9625544863146661</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.993594575881168</v>
+        <v>0.9938657364360142</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>695</v>
@@ -1074,19 +1074,19 @@
         <v>719403</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>707509</v>
+        <v>707652</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>726631</v>
+        <v>726953</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9737466944321178</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9576471991975566</v>
+        <v>0.9578403779588518</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9835295590237672</v>
+        <v>0.9839665333772916</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>33411</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>23911</v>
+        <v>23944</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>46280</v>
+        <v>46716</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.06160017208640851</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.04408442359358634</v>
+        <v>0.04414507068421693</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.08532661751139556</v>
+        <v>0.0861296133640938</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>6</v>
@@ -1199,19 +1199,19 @@
         <v>5956</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>2144</v>
+        <v>1986</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>12257</v>
+        <v>11704</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.03549858791629091</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.01278076167550445</v>
+        <v>0.01183777509432633</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.07305352999515306</v>
+        <v>0.06975559635473307</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>42</v>
@@ -1220,19 +1220,19 @@
         <v>39367</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>28922</v>
+        <v>27992</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>53167</v>
+        <v>53013</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.05543352550161011</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.040725578663111</v>
+        <v>0.03941548186335289</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.07486482123828943</v>
+        <v>0.07464794484966775</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>508978</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>496109</v>
+        <v>495673</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>518478</v>
+        <v>518445</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9383998279135914</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9146733824886044</v>
+        <v>0.9138703866359063</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9559155764064136</v>
+        <v>0.9558549293157831</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>158</v>
@@ -1270,19 +1270,19 @@
         <v>161826</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>155525</v>
+        <v>156078</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>165638</v>
+        <v>165796</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9645014120837091</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9269464700048469</v>
+        <v>0.9302444036452668</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9872192383244954</v>
+        <v>0.9881622249056736</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>654</v>
@@ -1291,19 +1291,19 @@
         <v>670804</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>657004</v>
+        <v>657158</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>681249</v>
+        <v>682179</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9445664744983899</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9251351787617105</v>
+        <v>0.925352055150332</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9592744213368889</v>
+        <v>0.960584518136647</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>89534</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>73418</v>
+        <v>71362</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>108113</v>
+        <v>108092</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.07230222870624252</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.05928738143365556</v>
+        <v>0.0576272303714649</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.08730514662275904</v>
+        <v>0.08728832139282872</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>29</v>
@@ -1416,19 +1416,19 @@
         <v>29117</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>20640</v>
+        <v>19282</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>42265</v>
+        <v>39703</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.04076450330610133</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.02889568495237766</v>
+        <v>0.0269943714769973</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.05917132883265368</v>
+        <v>0.05558433293963803</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>122</v>
@@ -1437,19 +1437,19 @@
         <v>118652</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>100311</v>
+        <v>99436</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>143194</v>
+        <v>142609</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.06076545365091734</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.0513724471597802</v>
+        <v>0.05092452292334236</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.07333406548980241</v>
+        <v>0.07303475981967514</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>1148800</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1130221</v>
+        <v>1130242</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1164916</v>
+        <v>1166972</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9276977712937575</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.912694853377241</v>
+        <v>0.912711678607171</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9407126185663444</v>
+        <v>0.942372769628535</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>665</v>
@@ -1487,19 +1487,19 @@
         <v>685168</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>672020</v>
+        <v>674582</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>693645</v>
+        <v>695003</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9592354966938986</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9408286711673464</v>
+        <v>0.9444156670603618</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9711043150476223</v>
+        <v>0.9730056285230027</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1796</v>
@@ -1508,19 +1508,19 @@
         <v>1833968</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1809426</v>
+        <v>1810011</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1852309</v>
+        <v>1853184</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9392345463490827</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9266659345101976</v>
+        <v>0.926965240180325</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9486275528402197</v>
+        <v>0.9490754770766578</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>18589</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>11580</v>
+        <v>11302</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>27297</v>
+        <v>27561</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.05318100890876144</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.03312813472382221</v>
+        <v>0.0323338779089235</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.07809561591211986</v>
+        <v>0.07885007520115482</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>35</v>
@@ -1633,19 +1633,19 @@
         <v>35981</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>24543</v>
+        <v>25195</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>48479</v>
+        <v>49395</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.06326392586558248</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.04315242310082697</v>
+        <v>0.04429820100207624</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.08523776177602604</v>
+        <v>0.08684847951438214</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>55</v>
@@ -1654,19 +1654,19 @@
         <v>54570</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>42771</v>
+        <v>40537</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>69423</v>
+        <v>70205</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.05942596877449879</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.04657709660214431</v>
+        <v>0.04414366516738166</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.07560039235084567</v>
+        <v>0.07645173299575327</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>330948</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>322240</v>
+        <v>321976</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>337957</v>
+        <v>338235</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9468189910912386</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.92190438408788</v>
+        <v>0.9211499247988448</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9668718652761777</v>
+        <v>0.9676661220910764</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>504</v>
@@ -1704,19 +1704,19 @@
         <v>532771</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>520273</v>
+        <v>519357</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>544209</v>
+        <v>543557</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9367360741344175</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.914762238223974</v>
+        <v>0.9131515204856175</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.956847576899173</v>
+        <v>0.9557017989979236</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>823</v>
@@ -1725,19 +1725,19 @@
         <v>863719</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>848866</v>
+        <v>848084</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>875518</v>
+        <v>877752</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9405740312255012</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9243996076491544</v>
+        <v>0.9235482670042467</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9534229033978557</v>
+        <v>0.9558563348326184</v>
       </c>
     </row>
     <row r="18">
@@ -1832,7 +1832,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>4125</v>
+        <v>4447</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.002753368451470917</v>
@@ -1841,7 +1841,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.01383223973545598</v>
+        <v>0.01491349943774174</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>86</v>
@@ -1850,19 +1850,19 @@
         <v>88851</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>71831</v>
+        <v>71524</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>106824</v>
+        <v>107522</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.07115104016590802</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.05752153528048578</v>
+        <v>0.05727606335981097</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.08554425270781753</v>
+        <v>0.0861027013644208</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>87</v>
@@ -1871,19 +1871,19 @@
         <v>89672</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>73262</v>
+        <v>70554</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>108813</v>
+        <v>110273</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.05796633062131975</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.04735854337176866</v>
+        <v>0.04560814343072035</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.07034014841598794</v>
+        <v>0.07128368190637101</v>
       </c>
     </row>
     <row r="20">
@@ -1900,7 +1900,7 @@
         <v>297380</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>294076</v>
+        <v>293754</v>
       </c>
       <c r="F20" s="5" t="n">
         <v>298201</v>
@@ -1909,7 +1909,7 @@
         <v>0.9972466315485291</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9861677602645441</v>
+        <v>0.9850865005622572</v>
       </c>
       <c r="I20" s="6" t="n">
         <v>1</v>
@@ -1921,19 +1921,19 @@
         <v>1159909</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>1141936</v>
+        <v>1141238</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>1176929</v>
+        <v>1177236</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.928848959834092</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9144557472921825</v>
+        <v>0.9138972986355791</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9424784647195142</v>
+        <v>0.9427239366401889</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1457</v>
@@ -1942,19 +1942,19 @@
         <v>1457288</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1438147</v>
+        <v>1436687</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1473698</v>
+        <v>1476406</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9420336693786803</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9296598515840119</v>
+        <v>0.9287163180936293</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.952641456628231</v>
+        <v>0.9543918565692797</v>
       </c>
     </row>
     <row r="21">
@@ -2046,19 +2046,19 @@
         <v>177307</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>153883</v>
+        <v>154862</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>205369</v>
+        <v>203308</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.05423606506026483</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.04707079532269237</v>
+        <v>0.04737050256926457</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.06281990967128744</v>
+        <v>0.06218955827605754</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>172</v>
@@ -2067,19 +2067,19 @@
         <v>178944</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>152489</v>
+        <v>153240</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>203945</v>
+        <v>210160</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.05297137162262482</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.04514019154908391</v>
+        <v>0.04536243708720125</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.06037222606960329</v>
+        <v>0.06221210701594347</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>356</v>
@@ -2088,19 +2088,19 @@
         <v>356251</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>321552</v>
+        <v>323093</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>391384</v>
+        <v>397575</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.05359335389215705</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.04837337946767419</v>
+        <v>0.04860512931843174</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.05887862706843403</v>
+        <v>0.05981001783837268</v>
       </c>
     </row>
     <row r="23">
@@ -2117,19 +2117,19 @@
         <v>3091865</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>3063803</v>
+        <v>3065864</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>3115289</v>
+        <v>3114310</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9457639349397352</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9371800903287127</v>
+        <v>0.9378104417239423</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9529292046773078</v>
+        <v>0.9526294974307354</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>3124</v>
@@ -2138,19 +2138,19 @@
         <v>3199180</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>3174179</v>
+        <v>3167964</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>3225635</v>
+        <v>3224884</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9470286283773752</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9396277739303968</v>
+        <v>0.9377878929840565</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9548598084509161</v>
+        <v>0.9546375629127988</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>6146</v>
@@ -2159,19 +2159,19 @@
         <v>6291045</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>6255912</v>
+        <v>6249721</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>6325744</v>
+        <v>6324203</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.946406646107843</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9411213729315659</v>
+        <v>0.9401899821616273</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9516266205323258</v>
+        <v>0.9513948706815682</v>
       </c>
     </row>
     <row r="24">
@@ -2505,19 +2505,19 @@
         <v>24303</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>15381</v>
+        <v>16567</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>36419</v>
+        <v>36875</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.05558539330118369</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.03517877827448206</v>
+        <v>0.03789297452500788</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.08329904648675687</v>
+        <v>0.08434240260432352</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>2</v>
@@ -2529,7 +2529,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>6960</v>
+        <v>6808</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.006555168491813741</v>
@@ -2538,7 +2538,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.02213462611953302</v>
+        <v>0.02165150413995557</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>24</v>
@@ -2547,19 +2547,19 @@
         <v>26364</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>17232</v>
+        <v>18047</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>38434</v>
+        <v>39351</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.0350739126725035</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.02292494849174772</v>
+        <v>0.02400908483169918</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.05113190384619518</v>
+        <v>0.05235121854072568</v>
       </c>
     </row>
     <row r="5">
@@ -2576,19 +2576,19 @@
         <v>412908</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>400792</v>
+        <v>400336</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>421830</v>
+        <v>420644</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9444146066988163</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.916700953513243</v>
+        <v>0.9156575973956764</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9648212217255179</v>
+        <v>0.9621070254749919</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>281</v>
@@ -2597,7 +2597,7 @@
         <v>312393</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>307494</v>
+        <v>307646</v>
       </c>
       <c r="M5" s="5" t="n">
         <v>314454</v>
@@ -2606,7 +2606,7 @@
         <v>0.9934448315081863</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.977865373880465</v>
+        <v>0.9783484958600464</v>
       </c>
       <c r="P5" s="6" t="n">
         <v>1</v>
@@ -2618,19 +2618,19 @@
         <v>725301</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>713231</v>
+        <v>712314</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>734433</v>
+        <v>733618</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9649260873274965</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9488680961538047</v>
+        <v>0.9476487814592738</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9770750515082524</v>
+        <v>0.9759909151683007</v>
       </c>
     </row>
     <row r="6">
@@ -2722,19 +2722,19 @@
         <v>15684</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>8542</v>
+        <v>8360</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>26346</v>
+        <v>27514</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.03761050058816758</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.02048375017722412</v>
+        <v>0.02004641758758838</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.06317607402891035</v>
+        <v>0.06597868127516358</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>2</v>
@@ -2746,7 +2746,7 @@
         <v>0</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>9519</v>
+        <v>10401</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.008351247044242612</v>
@@ -2755,7 +2755,7 @@
         <v>0</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.02824342895335559</v>
+        <v>0.03086150670417775</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>15</v>
@@ -2764,19 +2764,19 @@
         <v>18499</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>10468</v>
+        <v>10400</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>30461</v>
+        <v>30569</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.02453265647706643</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.01388272524972055</v>
+        <v>0.01379176681844826</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.04039707177942604</v>
+        <v>0.040539226345721</v>
       </c>
     </row>
     <row r="8">
@@ -2793,19 +2793,19 @@
         <v>401334</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>390672</v>
+        <v>389504</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>408476</v>
+        <v>408658</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9623894994118324</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9368239259710895</v>
+        <v>0.9340213187248365</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9795162498227757</v>
+        <v>0.9799535824124117</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>302</v>
@@ -2814,7 +2814,7 @@
         <v>334219</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>327515</v>
+        <v>326633</v>
       </c>
       <c r="M8" s="5" t="n">
         <v>337034</v>
@@ -2823,7 +2823,7 @@
         <v>0.9916487529557574</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9717565710466443</v>
+        <v>0.9691384932958222</v>
       </c>
       <c r="P8" s="6" t="n">
         <v>1</v>
@@ -2835,19 +2835,19 @@
         <v>735553</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>723591</v>
+        <v>723483</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>743584</v>
+        <v>743652</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9754673435229335</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9596029282205734</v>
+        <v>0.9594607736542792</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9861172747502794</v>
+        <v>0.9862082331815517</v>
       </c>
     </row>
     <row r="9">
@@ -2939,19 +2939,19 @@
         <v>37462</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>26793</v>
+        <v>25680</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>50605</v>
+        <v>51132</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.05981189216938915</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.04277747447802416</v>
+        <v>0.04099982194741986</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.08079445438771371</v>
+        <v>0.08163699084393834</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>9</v>
@@ -2960,19 +2960,19 @@
         <v>9752</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>4341</v>
+        <v>4531</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>17195</v>
+        <v>18276</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.03780882529360808</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.01682996186860317</v>
+        <v>0.01756666023436182</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.06666430795019246</v>
+        <v>0.07085463887658437</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>44</v>
@@ -2981,19 +2981,19 @@
         <v>47215</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>33792</v>
+        <v>33938</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>60977</v>
+        <v>61425</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.05339373416318185</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.03821387981191939</v>
+        <v>0.0383795405623154</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.06895679016062624</v>
+        <v>0.06946367433084415</v>
       </c>
     </row>
     <row r="11">
@@ -3010,19 +3010,19 @@
         <v>588876</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>575733</v>
+        <v>575206</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>599545</v>
+        <v>600658</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9401881078306108</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9192055456122862</v>
+        <v>0.9183630091560615</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9572225255219758</v>
+        <v>0.9590001780525802</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>233</v>
@@ -3031,19 +3031,19 @@
         <v>248186</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>240743</v>
+        <v>239662</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>253597</v>
+        <v>253407</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9621911747063919</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9333356920498075</v>
+        <v>0.9291453611234156</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9831700381313968</v>
+        <v>0.9824333397656382</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>787</v>
@@ -3052,19 +3052,19 @@
         <v>837061</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>823299</v>
+        <v>822851</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>850484</v>
+        <v>850338</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9466062658368182</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9310432098393737</v>
+        <v>0.9305363256691558</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9617861201880805</v>
+        <v>0.961620459437684</v>
       </c>
     </row>
     <row r="12">
@@ -3156,19 +3156,19 @@
         <v>67710</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>51721</v>
+        <v>52848</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>84639</v>
+        <v>85574</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.05846524356005377</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.04465901225793802</v>
+        <v>0.04563239382109942</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.07308206649129655</v>
+        <v>0.07388999088840269</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>21</v>
@@ -3177,19 +3177,19 @@
         <v>21826</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>13892</v>
+        <v>13920</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>33376</v>
+        <v>34580</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.02846901749290219</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.01812034330486267</v>
+        <v>0.01815713124151619</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.04353488232843802</v>
+        <v>0.0451055170298244</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>85</v>
@@ -3198,19 +3198,19 @@
         <v>89536</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>73283</v>
+        <v>71725</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>109976</v>
+        <v>109701</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.04651752053498701</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.03807313556467937</v>
+        <v>0.03726382594607919</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.05713685400818549</v>
+        <v>0.05699374954832402</v>
       </c>
     </row>
     <row r="14">
@@ -3227,19 +3227,19 @@
         <v>1090420</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1073491</v>
+        <v>1072556</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1106409</v>
+        <v>1105282</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9415347564399462</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9269179335087031</v>
+        <v>0.9261100091115971</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.955340987742062</v>
+        <v>0.9543676061789005</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>690</v>
@@ -3248,19 +3248,19 @@
         <v>744831</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>733281</v>
+        <v>732077</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>752765</v>
+        <v>752737</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9715309825070978</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9564651176715619</v>
+        <v>0.9548944829701752</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9818796566951371</v>
+        <v>0.9818428687584834</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1708</v>
@@ -3269,19 +3269,19 @@
         <v>1835252</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1814812</v>
+        <v>1815087</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1851505</v>
+        <v>1853063</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.953482479465013</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9428631459918144</v>
+        <v>0.9430062504516755</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9619268644353204</v>
+        <v>0.96273617405392</v>
       </c>
     </row>
     <row r="15">
@@ -3373,19 +3373,19 @@
         <v>30055</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>20054</v>
+        <v>20276</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>41766</v>
+        <v>42432</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.05886315568823945</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.0392765005456195</v>
+        <v>0.03971003030302041</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.08179878232961572</v>
+        <v>0.08310353123802378</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>59</v>
@@ -3394,19 +3394,19 @@
         <v>62982</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>48792</v>
+        <v>49650</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>79709</v>
+        <v>79160</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.0828184041990941</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.06415904092641433</v>
+        <v>0.06528672126690369</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1048129575505429</v>
+        <v>0.1040914913174568</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>87</v>
@@ -3415,19 +3415,19 @@
         <v>93038</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>76167</v>
+        <v>76268</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>113699</v>
+        <v>113453</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.07319554438436165</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.05992319154632887</v>
+        <v>0.06000205471765282</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.08945076381724454</v>
+        <v>0.08925652098469715</v>
       </c>
     </row>
     <row r="17">
@@ -3444,19 +3444,19 @@
         <v>480541</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>468830</v>
+        <v>468164</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>490542</v>
+        <v>490320</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9411368443117606</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9182012176703843</v>
+        <v>0.9168964687619763</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9607234994543805</v>
+        <v>0.9602899696969797</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>643</v>
@@ -3465,19 +3465,19 @@
         <v>697505</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>680778</v>
+        <v>681327</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>711695</v>
+        <v>710837</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9171815958009059</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8951870424494575</v>
+        <v>0.8959085086825431</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9358409590735857</v>
+        <v>0.9347132787330964</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1102</v>
@@ -3486,19 +3486,19 @@
         <v>1178046</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1157385</v>
+        <v>1157631</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1194917</v>
+        <v>1194816</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9268044556156383</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9105492361827553</v>
+        <v>0.9107434790153028</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.940076808453671</v>
+        <v>0.9399979452823469</v>
       </c>
     </row>
     <row r="18">
@@ -3590,19 +3590,19 @@
         <v>5274</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>1136</v>
+        <v>1936</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>13715</v>
+        <v>14837</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.01983712419413155</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.004274537898778528</v>
+        <v>0.007282766187233016</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.05158948094380301</v>
+        <v>0.0558128674747726</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>65</v>
@@ -3611,19 +3611,19 @@
         <v>69969</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>53967</v>
+        <v>56188</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>86633</v>
+        <v>89801</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.06329521160427104</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.04881988659861408</v>
+        <v>0.05082843977383998</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.07836937495234435</v>
+        <v>0.08123558447784809</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>69</v>
@@ -3632,19 +3632,19 @@
         <v>75243</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>59872</v>
+        <v>59141</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>94403</v>
+        <v>94351</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.05487027785467289</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.04366149187002203</v>
+        <v>0.04312811439646745</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.06884282874902639</v>
+        <v>0.06880517368212476</v>
       </c>
     </row>
     <row r="20">
@@ -3661,19 +3661,19 @@
         <v>260567</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>252126</v>
+        <v>251004</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>264705</v>
+        <v>263905</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9801628758058685</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9484105190561972</v>
+        <v>0.944187132525226</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9957254621012215</v>
+        <v>0.992717233812767</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>975</v>
@@ -3682,19 +3682,19 @@
         <v>1035470</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>1018806</v>
+        <v>1015638</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>1051472</v>
+        <v>1049251</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.936704788395729</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9216306250476557</v>
+        <v>0.918764415522152</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9511801134013864</v>
+        <v>0.94917156022616</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1235</v>
@@ -3703,19 +3703,19 @@
         <v>1296037</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1276877</v>
+        <v>1276929</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1311408</v>
+        <v>1312139</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9451297221453271</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9311571712509736</v>
+        <v>0.9311948263178753</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9563385081299779</v>
+        <v>0.9568718856035325</v>
       </c>
     </row>
     <row r="21">
@@ -3807,19 +3807,19 @@
         <v>180488</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>153105</v>
+        <v>154076</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>210545</v>
+        <v>208421</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.05284959136496033</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.04483137326410292</v>
+        <v>0.04511568385412475</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.06165053726905325</v>
+        <v>0.06102876045333332</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>158</v>
@@ -3828,19 +3828,19 @@
         <v>169406</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>143185</v>
+        <v>145173</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>194421</v>
+        <v>196197</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.04782753615399037</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.04042490945365333</v>
+        <v>0.04098601043301655</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.05488998894822329</v>
+        <v>0.05539137389994258</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>324</v>
@@ -3849,19 +3849,19 @@
         <v>349894</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>311249</v>
+        <v>312778</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>384373</v>
+        <v>387859</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.05029277056500635</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.0447379791839642</v>
+        <v>0.04495785153612389</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.0552486514791805</v>
+        <v>0.05574975431721441</v>
       </c>
     </row>
     <row r="23">
@@ -3878,19 +3878,19 @@
         <v>3234646</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>3204589</v>
+        <v>3206713</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>3262029</v>
+        <v>3261058</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9471504086350396</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9383494627309467</v>
+        <v>0.9389712395466666</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9551686267358971</v>
+        <v>0.9548843161458752</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>3124</v>
@@ -3899,19 +3899,19 @@
         <v>3372604</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>3347589</v>
+        <v>3345813</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>3398825</v>
+        <v>3396837</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9521724638460096</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9451100110517767</v>
+        <v>0.9446086261000576</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9595750905463467</v>
+        <v>0.9590139895669837</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>6157</v>
@@ -3920,19 +3920,19 @@
         <v>6607250</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>6572771</v>
+        <v>6569285</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>6645895</v>
+        <v>6644366</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9497072294349936</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9447513485208195</v>
+        <v>0.9442502456827855</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9552620208160357</v>
+        <v>0.9550421484638761</v>
       </c>
     </row>
     <row r="24">
@@ -4266,19 +4266,19 @@
         <v>24212</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>15870</v>
+        <v>15690</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>37564</v>
+        <v>35441</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.05642516023614124</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.0369861101528488</v>
+        <v>0.03656602100749803</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.08754200943281078</v>
+        <v>0.08259544183126824</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>15</v>
@@ -4287,19 +4287,19 @@
         <v>17342</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>10601</v>
+        <v>9733</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>28236</v>
+        <v>27442</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.04996991257256419</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.03054508882812569</v>
+        <v>0.02804492786417255</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.08135961384451504</v>
+        <v>0.07907198437941797</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>37</v>
@@ -4308,19 +4308,19 @@
         <v>41554</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>29428</v>
+        <v>28939</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>55305</v>
+        <v>57807</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.05353868948488111</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.03791576950502872</v>
+        <v>0.03728601523628702</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.07125571925698856</v>
+        <v>0.07447958672149235</v>
       </c>
     </row>
     <row r="5">
@@ -4337,19 +4337,19 @@
         <v>404880</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>391528</v>
+        <v>393651</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>413222</v>
+        <v>413402</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9435748397638588</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9124579905671889</v>
+        <v>0.9174045581687318</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9630138898471508</v>
+        <v>0.963433978992502</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>317</v>
@@ -4358,19 +4358,19 @@
         <v>329713</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>318819</v>
+        <v>319613</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>336454</v>
+        <v>337322</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9500300874274358</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.918640386155485</v>
+        <v>0.9209280156205826</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9694549111718745</v>
+        <v>0.9719550721358275</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>691</v>
@@ -4379,19 +4379,19 @@
         <v>734593</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>720842</v>
+        <v>718340</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>746719</v>
+        <v>747208</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9464613105151188</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9287442807430113</v>
+        <v>0.9255204132785074</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9620842304949712</v>
+        <v>0.9627139847637129</v>
       </c>
     </row>
     <row r="6">
@@ -4483,19 +4483,19 @@
         <v>18097</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>11008</v>
+        <v>11271</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>26992</v>
+        <v>27076</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.04797490258356356</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.0291804066303517</v>
+        <v>0.02987872552071343</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.07155377499642519</v>
+        <v>0.07177712420565585</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>5</v>
@@ -4504,19 +4504,19 @@
         <v>6472</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>2148</v>
+        <v>2355</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>16159</v>
+        <v>15735</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.01738409512867413</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.005769425720537248</v>
+        <v>0.006325827694842774</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.04340701817711413</v>
+        <v>0.04226704359091628</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>23</v>
@@ -4525,19 +4525,19 @@
         <v>24569</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>15082</v>
+        <v>16359</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>35803</v>
+        <v>38904</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.03278059187954018</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.02012313271183183</v>
+        <v>0.02182652820213314</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.04776915867299115</v>
+        <v>0.05190709189403427</v>
       </c>
     </row>
     <row r="8">
@@ -4554,19 +4554,19 @@
         <v>359130</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>350235</v>
+        <v>350151</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>366219</v>
+        <v>365956</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9520250974164365</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9284462250035748</v>
+        <v>0.928222875794344</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9708195933696482</v>
+        <v>0.9701212744792865</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>347</v>
@@ -4575,19 +4575,19 @@
         <v>365801</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>356114</v>
+        <v>356538</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>370125</v>
+        <v>369918</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9826159048713259</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9565929818228859</v>
+        <v>0.9577329564090837</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9942305742794628</v>
+        <v>0.9936741723051572</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>683</v>
@@ -4596,19 +4596,19 @@
         <v>724931</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>713697</v>
+        <v>710596</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>734418</v>
+        <v>733141</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9672194081204598</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9522308413270093</v>
+        <v>0.9480929081059656</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9798768672881684</v>
+        <v>0.9781734717978667</v>
       </c>
     </row>
     <row r="9">
@@ -4700,19 +4700,19 @@
         <v>36703</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>26097</v>
+        <v>26427</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>48598</v>
+        <v>49015</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.07032426422146043</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.0500020276808646</v>
+        <v>0.0506349536563355</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.09311543293721322</v>
+        <v>0.09391435475904657</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>7</v>
@@ -4721,19 +4721,19 @@
         <v>8646</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>3964</v>
+        <v>3517</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>17443</v>
+        <v>16571</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.05204815168438311</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.02386048978587736</v>
+        <v>0.02116933426664144</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1050005845596799</v>
+        <v>0.09974904933170108</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>43</v>
@@ -4742,19 +4742,19 @@
         <v>45350</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>33893</v>
+        <v>32742</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>59162</v>
+        <v>60871</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.06591159267577848</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.04926046523406881</v>
+        <v>0.04758756119504295</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.08598718401794819</v>
+        <v>0.08847114227745584</v>
       </c>
     </row>
     <row r="11">
@@ -4771,19 +4771,19 @@
         <v>485211</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>473316</v>
+        <v>472899</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>495817</v>
+        <v>495487</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9296757357785396</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9068845670627869</v>
+        <v>0.9060856452409536</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9499979723191354</v>
+        <v>0.9493650463436646</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>146</v>
@@ -4792,19 +4792,19 @@
         <v>157477</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>148680</v>
+        <v>149552</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>162159</v>
+        <v>162606</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9479518483156169</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.89499941544032</v>
+        <v>0.9002509506682989</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9761395102141227</v>
+        <v>0.9788306657333586</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>612</v>
@@ -4813,19 +4813,19 @@
         <v>642686</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>628874</v>
+        <v>627165</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>654143</v>
+        <v>655294</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9340884073242215</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9140128159820518</v>
+        <v>0.9115288577225442</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9507395347659312</v>
+        <v>0.9524124388049571</v>
       </c>
     </row>
     <row r="12">
@@ -4917,19 +4917,19 @@
         <v>81157</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>64539</v>
+        <v>64861</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>100740</v>
+        <v>99708</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.07059309391134634</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.05613837865254299</v>
+        <v>0.0564187152023077</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.08762746248536736</v>
+        <v>0.08672957429952205</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>27</v>
@@ -4938,19 +4938,19 @@
         <v>29783</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>20485</v>
+        <v>20986</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>43574</v>
+        <v>44833</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.03606242234302105</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.02480386494803886</v>
+        <v>0.02541022394390018</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.05276144643380203</v>
+        <v>0.05428549490076161</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>107</v>
@@ -4959,19 +4959,19 @@
         <v>110940</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>91557</v>
+        <v>91357</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>131688</v>
+        <v>133425</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.05615733455333419</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.04634584935471656</v>
+        <v>0.0462444890997891</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.06665986839959112</v>
+        <v>0.06753939137636672</v>
       </c>
     </row>
     <row r="14">
@@ -4988,19 +4988,19 @@
         <v>1068481</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1048898</v>
+        <v>1049930</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1085099</v>
+        <v>1084777</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9294069060886536</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9123725375146327</v>
+        <v>0.9132704257004779</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9438616213474569</v>
+        <v>0.9435812847976921</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>771</v>
@@ -5009,19 +5009,19 @@
         <v>796093</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>782302</v>
+        <v>781043</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>805391</v>
+        <v>804890</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.963937577656979</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9472385535661978</v>
+        <v>0.9457145050992383</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9751961350519611</v>
+        <v>0.9745897760560998</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1794</v>
@@ -5030,19 +5030,19 @@
         <v>1864574</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1843826</v>
+        <v>1842089</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1883957</v>
+        <v>1884157</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9438426654466658</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.933340131600409</v>
+        <v>0.9324606086236332</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9536541506452834</v>
+        <v>0.9537555109002109</v>
       </c>
     </row>
     <row r="15">
@@ -5134,19 +5134,19 @@
         <v>42931</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>31457</v>
+        <v>32517</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>55426</v>
+        <v>56034</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.06916546274501331</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.05067957886437537</v>
+        <v>0.05238751448138599</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.08929440138977308</v>
+        <v>0.09027423912259208</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>36</v>
@@ -5155,19 +5155,19 @@
         <v>41290</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>29481</v>
+        <v>29068</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>55541</v>
+        <v>55481</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.05592984886471784</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.03993343408300605</v>
+        <v>0.03937511245112724</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.07523439484035375</v>
+        <v>0.07515211338314537</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>83</v>
@@ -5176,19 +5176,19 @@
         <v>84221</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>66425</v>
+        <v>68925</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>103771</v>
+        <v>106673</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.06197526871711875</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.04887996055859647</v>
+        <v>0.05071912107904684</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.07636150920940751</v>
+        <v>0.07849685492377549</v>
       </c>
     </row>
     <row r="17">
@@ -5205,19 +5205,19 @@
         <v>577775</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>565280</v>
+        <v>564672</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>589249</v>
+        <v>588189</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9308345372549867</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9107055986102266</v>
+        <v>0.9097257608774079</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9493204211356242</v>
+        <v>0.9476124855186139</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>663</v>
@@ -5226,19 +5226,19 @@
         <v>696954</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>682703</v>
+        <v>682763</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>708763</v>
+        <v>709176</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9440701511352821</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9247656051596462</v>
+        <v>0.9248478866168545</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9600665659169939</v>
+        <v>0.9606248875488728</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1213</v>
@@ -5247,19 +5247,19 @@
         <v>1274729</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1255179</v>
+        <v>1252277</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1292525</v>
+        <v>1290025</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9380247312828812</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9236384907905929</v>
+        <v>0.9215031450762244</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9511200394414036</v>
+        <v>0.949280878920953</v>
       </c>
     </row>
     <row r="18">
@@ -5364,19 +5364,19 @@
         <v>87451</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>69703</v>
+        <v>69891</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>108163</v>
+        <v>109014</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.08082142937013359</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.06441925310382331</v>
+        <v>0.06459302074130314</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.09996348489138529</v>
+        <v>0.1007502064021739</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>72</v>
@@ -5385,19 +5385,19 @@
         <v>87451</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>66977</v>
+        <v>69648</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>108220</v>
+        <v>109992</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.06387139302749029</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.04891800590244742</v>
+        <v>0.05086903099889262</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.07904089027352246</v>
+        <v>0.0803348765187409</v>
       </c>
     </row>
     <row r="20">
@@ -5427,19 +5427,19 @@
         <v>994574</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>973862</v>
+        <v>973011</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>1012322</v>
+        <v>1012134</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9191785706298664</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9000365151086147</v>
+        <v>0.8992497935978261</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9355807468961768</v>
+        <v>0.9354069792586969</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1192</v>
@@ -5448,19 +5448,19 @@
         <v>1281719</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1260950</v>
+        <v>1259178</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1302193</v>
+        <v>1299522</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9361286069725097</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9209591097264773</v>
+        <v>0.9196651234812593</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9510819940975516</v>
+        <v>0.9491309690011074</v>
       </c>
     </row>
     <row r="21">
@@ -5552,19 +5552,19 @@
         <v>203100</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>175236</v>
+        <v>176175</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>232442</v>
+        <v>232155</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.05998724735031206</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.0517572520111457</v>
+        <v>0.05203475083099016</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.06865359061814989</v>
+        <v>0.06856892858397523</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>162</v>
@@ -5573,19 +5573,19 @@
         <v>190984</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>161295</v>
+        <v>164220</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>221893</v>
+        <v>221312</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.0540786912935637</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.04567200928889333</v>
+        <v>0.0465001486635341</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.06283071788420164</v>
+        <v>0.0626663014102886</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>365</v>
@@ -5594,19 +5594,19 @@
         <v>394084</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>354351</v>
+        <v>356173</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>434727</v>
+        <v>431304</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.05697066895333905</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.05122658065795849</v>
+        <v>0.05149010625222366</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.06284611340478005</v>
+        <v>0.06235135268752599</v>
       </c>
     </row>
     <row r="23">
@@ -5623,19 +5623,19 @@
         <v>3182622</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>3153280</v>
+        <v>3153567</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>3210486</v>
+        <v>3209547</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.940012752649688</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9313464093818501</v>
+        <v>0.9314310714160248</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9482427479888543</v>
+        <v>0.9479652491690098</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>3164</v>
@@ -5644,19 +5644,19 @@
         <v>3340612</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>3309703</v>
+        <v>3310284</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>3370301</v>
+        <v>3367376</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9459213087064363</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9371692821157984</v>
+        <v>0.9373336985897114</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9543279907111069</v>
+        <v>0.953499851336466</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>6185</v>
@@ -5665,19 +5665,19 @@
         <v>6523234</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>6482591</v>
+        <v>6486014</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>6562967</v>
+        <v>6561145</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.943029331046661</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9371538865952196</v>
+        <v>0.937648647312474</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9487734193420414</v>
+        <v>0.9485098937477763</v>
       </c>
     </row>
     <row r="24">
@@ -6011,19 +6011,19 @@
         <v>28563</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>20282</v>
+        <v>20849</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>39492</v>
+        <v>39696</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.05187377853203643</v>
+        <v>0.05187377853203642</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.03683550297934151</v>
+        <v>0.0378649736902192</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.07172290883745239</v>
+        <v>0.07209339220927759</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>21</v>
@@ -6032,19 +6032,19 @@
         <v>12610</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>7623</v>
+        <v>7977</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>18709</v>
+        <v>18609</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.0258193708647355</v>
+        <v>0.02581937086473549</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01560837489784618</v>
+        <v>0.01633242318042791</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.03830506569948686</v>
+        <v>0.03810035749506128</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>58</v>
@@ -6053,19 +6053,19 @@
         <v>41173</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>31122</v>
+        <v>31849</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>53660</v>
+        <v>53809</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.03962652223173237</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.02995264019002062</v>
+        <v>0.03065289888604386</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.05164456965810961</v>
+        <v>0.05178820601115992</v>
       </c>
     </row>
     <row r="5">
@@ -6082,19 +6082,19 @@
         <v>522055</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>511126</v>
+        <v>510922</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>530336</v>
+        <v>529769</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9481262214679637</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9282770911625475</v>
+        <v>0.9279066077907233</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9631644970206583</v>
+        <v>0.9621350263097811</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>665</v>
@@ -6103,19 +6103,19 @@
         <v>475801</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>469702</v>
+        <v>469802</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>480788</v>
+        <v>480434</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.9741806291352646</v>
+        <v>0.9741806291352645</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9616949343005133</v>
+        <v>0.9618996425049386</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9843916251021539</v>
+        <v>0.9836675768195721</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1182</v>
@@ -6124,19 +6124,19 @@
         <v>997856</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>985369</v>
+        <v>985220</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1007907</v>
+        <v>1007180</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.9603734777682678</v>
+        <v>0.9603734777682676</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9483554303418914</v>
+        <v>0.94821179398884</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9700473598099796</v>
+        <v>0.9693471011139563</v>
       </c>
     </row>
     <row r="6">
@@ -6228,19 +6228,19 @@
         <v>23483</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>15448</v>
+        <v>16580</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>31602</v>
+        <v>33244</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.0485982490805481</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.03197030421358547</v>
+        <v>0.03431181389542992</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.06539912251459706</v>
+        <v>0.06879812442829229</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>12</v>
@@ -6249,19 +6249,19 @@
         <v>6944</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>3639</v>
+        <v>3700</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>11367</v>
+        <v>11623</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.01641084671569014</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.008599737711940563</v>
+        <v>0.008742976189907334</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.026863625211366</v>
+        <v>0.02746846623401096</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>44</v>
@@ -6270,19 +6270,19 @@
         <v>30427</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>22104</v>
+        <v>22626</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>40886</v>
+        <v>40490</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.03357116886609016</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.02438753618186618</v>
+        <v>0.02496395065864393</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.04511053898046942</v>
+        <v>0.04467396531003753</v>
       </c>
     </row>
     <row r="8">
@@ -6299,19 +6299,19 @@
         <v>459729</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>451610</v>
+        <v>449968</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>467764</v>
+        <v>466632</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.951401750919452</v>
+        <v>0.9514017509194519</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9346008774854033</v>
+        <v>0.9312018755717084</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9680296957864146</v>
+        <v>0.96568818610457</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>578</v>
@@ -6320,19 +6320,19 @@
         <v>416199</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>411776</v>
+        <v>411520</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>419504</v>
+        <v>419443</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9835891532843097</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.973136374788634</v>
+        <v>0.9725315337659889</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9914002622880596</v>
+        <v>0.9912570238100928</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1027</v>
@@ -6341,19 +6341,19 @@
         <v>875928</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>865469</v>
+        <v>865865</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>884251</v>
+        <v>883729</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.9664288311339099</v>
+        <v>0.96642883113391</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9548894610195304</v>
+        <v>0.9553260346899625</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9756124638181338</v>
+        <v>0.9750360493413561</v>
       </c>
     </row>
     <row r="9">
@@ -6445,19 +6445,19 @@
         <v>33912</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>24454</v>
+        <v>24967</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>45250</v>
+        <v>45448</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.07190756211854345</v>
+        <v>0.07190756211854343</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.05185169799534491</v>
+        <v>0.05293904929354147</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.09594701038210801</v>
+        <v>0.09636683951617267</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>19</v>
@@ -6466,19 +6466,19 @@
         <v>13046</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>7771</v>
+        <v>7826</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>23130</v>
+        <v>23008</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.06958156555591682</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.04144405143843014</v>
+        <v>0.04173990936707896</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1233628742524542</v>
+        <v>0.1227088525743908</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>64</v>
@@ -6487,19 +6487,19 @@
         <v>46959</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>35946</v>
+        <v>36644</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>61448</v>
+        <v>61066</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.07124588394345524</v>
+        <v>0.07124588394345525</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.05453758281598521</v>
+        <v>0.05559572766922573</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.0932295371219352</v>
+        <v>0.09264934755917623</v>
       </c>
     </row>
     <row r="11">
@@ -6516,19 +6516,19 @@
         <v>437700</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>426362</v>
+        <v>426164</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>447158</v>
+        <v>446645</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.9280924378814568</v>
+        <v>0.9280924378814566</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.904052989617892</v>
+        <v>0.9036331604838281</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9481483020046553</v>
+        <v>0.9470609507064588</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>270</v>
@@ -6537,19 +6537,19 @@
         <v>174451</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>164367</v>
+        <v>164489</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>179726</v>
+        <v>179671</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9304184344440832</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8766371257475459</v>
+        <v>0.8772911474256092</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.95855594856157</v>
+        <v>0.9582600906329208</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>713</v>
@@ -6558,19 +6558,19 @@
         <v>612150</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>597661</v>
+        <v>598043</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>623163</v>
+        <v>622465</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9287541160565448</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9067704628780648</v>
+        <v>0.9073506524408239</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9454624171840147</v>
+        <v>0.9444042723307743</v>
       </c>
     </row>
     <row r="12">
@@ -6662,19 +6662,19 @@
         <v>78744</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>64896</v>
+        <v>63450</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>94237</v>
+        <v>95580</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.06957169213222916</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.05733691067666277</v>
+        <v>0.05605920901809725</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.08325970276279625</v>
+        <v>0.08444673199421748</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>53</v>
@@ -6683,19 +6683,19 @@
         <v>30806</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>22397</v>
+        <v>22879</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>39952</v>
+        <v>40429</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.03579548508520388</v>
+        <v>0.03579548508520387</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.02602495477071634</v>
+        <v>0.02658425367143652</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.04642294794510253</v>
+        <v>0.04697712814461823</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>155</v>
@@ -6704,19 +6704,19 @@
         <v>109550</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>92219</v>
+        <v>92813</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>127488</v>
+        <v>128306</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.05498251656957428</v>
+        <v>0.05498251656957431</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.04628418838582679</v>
+        <v>0.04658193931527162</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.06398535541976424</v>
+        <v>0.06439585514778143</v>
       </c>
     </row>
     <row r="14">
@@ -6733,19 +6733,19 @@
         <v>1053099</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1037606</v>
+        <v>1036263</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1066947</v>
+        <v>1068393</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9304283078677709</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9167402972372036</v>
+        <v>0.9155532680057825</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9426630893233373</v>
+        <v>0.9439407909819029</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1176</v>
@@ -6754,19 +6754,19 @@
         <v>829809</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>820663</v>
+        <v>820186</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>838218</v>
+        <v>837736</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9642045149147962</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9535770520548975</v>
+        <v>0.9530228718553806</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9739750452292834</v>
+        <v>0.9734157463285632</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>2192</v>
@@ -6775,19 +6775,19 @@
         <v>1882908</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1864970</v>
+        <v>1864152</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1900239</v>
+        <v>1899645</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.9450174834304257</v>
+        <v>0.9450174834304258</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9360146445802356</v>
+        <v>0.9356041448522182</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9537158116141725</v>
+        <v>0.9534180606847281</v>
       </c>
     </row>
     <row r="15">
@@ -6879,19 +6879,19 @@
         <v>30302</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>22524</v>
+        <v>22107</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>41087</v>
+        <v>40492</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.05344551535472856</v>
+        <v>0.05344551535472855</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.0397260929815588</v>
+        <v>0.0389911237331362</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.0724665137847369</v>
+        <v>0.07141666999040791</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>116</v>
@@ -6900,19 +6900,19 @@
         <v>62396</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>51365</v>
+        <v>52180</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>74783</v>
+        <v>74576</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.07522880260423968</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.06192859238659466</v>
+        <v>0.06291180228884681</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.09016300496005633</v>
+        <v>0.08991430114020665</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>159</v>
@@ -6921,19 +6921,19 @@
         <v>92698</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>79361</v>
+        <v>79843</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>109801</v>
+        <v>108551</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.06638414650452949</v>
+        <v>0.06638414650452948</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.05683302065857518</v>
+        <v>0.05717831196596577</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.07863173494635672</v>
+        <v>0.07773674674805882</v>
       </c>
     </row>
     <row r="17">
@@ -6950,19 +6950,19 @@
         <v>536674</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>525889</v>
+        <v>526484</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>544452</v>
+        <v>544869</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.9465544846452716</v>
+        <v>0.9465544846452714</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9275334862152628</v>
+        <v>0.9285833300095927</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.960273907018441</v>
+        <v>0.9610088762668646</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>1172</v>
@@ -6971,19 +6971,19 @@
         <v>767020</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>754633</v>
+        <v>754840</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>778051</v>
+        <v>777236</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9247711973957603</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9098369950399436</v>
+        <v>0.9100856988597933</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9380714076134055</v>
+        <v>0.9370881977111529</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1675</v>
@@ -6992,19 +6992,19 @@
         <v>1303694</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1286591</v>
+        <v>1287841</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1317031</v>
+        <v>1316549</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9336158534954706</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9213682650536433</v>
+        <v>0.9222632532519415</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9431669793414248</v>
+        <v>0.9428216880340344</v>
       </c>
     </row>
     <row r="18">
@@ -7099,7 +7099,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>3641</v>
+        <v>3625</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.004321880749674231</v>
@@ -7108,7 +7108,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.01534855572387085</v>
+        <v>0.01528213525625008</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>123</v>
@@ -7117,19 +7117,19 @@
         <v>72409</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>60213</v>
+        <v>59190</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>85895</v>
+        <v>85202</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.08589545929686736</v>
+        <v>0.08589545929686734</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.07142721137232859</v>
+        <v>0.07021385917763628</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1018931907854899</v>
+        <v>0.1010706484657113</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>125</v>
@@ -7138,19 +7138,19 @@
         <v>73435</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>60378</v>
+        <v>59359</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>88009</v>
+        <v>87929</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.06798105044281794</v>
+        <v>0.06798105044281791</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.05589418407015598</v>
+        <v>0.05495123898804091</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.08147317842619073</v>
+        <v>0.08139917485792759</v>
       </c>
     </row>
     <row r="20">
@@ -7167,16 +7167,16 @@
         <v>236203</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>233587</v>
+        <v>233603</v>
       </c>
       <c r="F20" s="5" t="n">
         <v>237228</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.9956781192503258</v>
+        <v>0.9956781192503257</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9846514442761291</v>
+        <v>0.9847178647437499</v>
       </c>
       <c r="I20" s="6" t="n">
         <v>1</v>
@@ -7188,19 +7188,19 @@
         <v>770584</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>757098</v>
+        <v>757791</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>782780</v>
+        <v>783803</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.9141045407031327</v>
+        <v>0.9141045407031325</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8981068092145099</v>
+        <v>0.8989293515342888</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9285727886276715</v>
+        <v>0.9297861408223643</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1144</v>
@@ -7209,19 +7209,19 @@
         <v>1006786</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>992212</v>
+        <v>992292</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1019843</v>
+        <v>1020862</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.9320189495571822</v>
+        <v>0.932018949557182</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.918526821573809</v>
+        <v>0.9186008251420721</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.944105815929844</v>
+        <v>0.945048761011959</v>
       </c>
     </row>
     <row r="21">
@@ -7313,19 +7313,19 @@
         <v>196030</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>174658</v>
+        <v>173102</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>220827</v>
+        <v>220804</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.05696086700989424</v>
+        <v>0.05696086700989426</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.05075063427314806</v>
+        <v>0.05029859564637465</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.06416610342580822</v>
+        <v>0.06415953008161818</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>344</v>
@@ -7334,19 +7334,19 @@
         <v>198212</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>175245</v>
+        <v>177083</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>220485</v>
+        <v>223754</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.05457274622626172</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.04824922955007822</v>
+        <v>0.04875537571791585</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.06070492344001888</v>
+        <v>0.06160502577248267</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>605</v>
@@ -7355,19 +7355,19 @@
         <v>394242</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>361053</v>
+        <v>366665</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>429472</v>
+        <v>429239</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.05573463453491619</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.05104259114780239</v>
+        <v>0.05183597654194714</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.06071510530911926</v>
+        <v>0.06068221154108808</v>
       </c>
     </row>
     <row r="23">
@@ -7384,19 +7384,19 @@
         <v>3245458</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>3220661</v>
+        <v>3220684</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>3266830</v>
+        <v>3268386</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9430391329901058</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9358338965741915</v>
+        <v>0.9358404699183818</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9492493657268519</v>
+        <v>0.9497014043536254</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>4895</v>
@@ -7405,19 +7405,19 @@
         <v>3433863</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>3411590</v>
+        <v>3408321</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>3456830</v>
+        <v>3454992</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>0.9454272537737384</v>
+        <v>0.9454272537737382</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9392950765599809</v>
+        <v>0.9383949742275174</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9517507704499214</v>
+        <v>0.9512446242820842</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>7933</v>
@@ -7426,19 +7426,19 @@
         <v>6679321</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>6644091</v>
+        <v>6644324</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>6712510</v>
+        <v>6706898</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.9442653654650837</v>
+        <v>0.9442653654650838</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9392848946908806</v>
+        <v>0.9393177884589118</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9489574088521976</v>
+        <v>0.9481640234580528</v>
       </c>
     </row>
     <row r="24">
